--- a/2022/Samsung/Others/DMS Imei List/01.02.2022 DMS Imei List.xlsx
+++ b/2022/Samsung/Others/DMS Imei List/01.02.2022 DMS Imei List.xlsx
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +174,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,7 +461,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +678,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <v>350816950163258</v>
       </c>
       <c r="E9" s="2"/>
@@ -691,7 +694,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <v>350816950010079</v>
       </c>
       <c r="E10" s="2"/>
@@ -707,7 +710,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="D11" s="8">
         <v>350816950202759</v>
       </c>
       <c r="E11" s="2"/>
